--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-411028.3213685869</v>
+        <v>-414017.3629159488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7788625.133342328</v>
+        <v>7757679.400320136</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13552345.2876875</v>
+        <v>13553493.25219078</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321.3100086750575</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.4004809860791</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>267.7771802904613</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>257.2117720231142</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.60685400616011</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>93.6984469626819</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>320.1888596171597</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>321.5296920684223</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49.42336704227771</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>89.65996150537407</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>311.9968678344736</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>189.5968436493439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>104.259066017576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>172.6255381703883</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8704893288691</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>146.7008107263316</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>131.3671164154401</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>23.66933006074704</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>32.61943598429563</v>
       </c>
       <c r="C22" t="n">
-        <v>68.8780973458249</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>58.49982625596414</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>100.3565319570704</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>77.5702613493297</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>157.7054415797576</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>31.73783249628717</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>102.0492932222871</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247749</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734099625</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>192.1675620474786</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672382</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533784</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341166</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388355</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>54.79213311335496</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031323</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698776</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743632</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>126.5947032552742</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049414</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772846</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.591366308673</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.628849368262</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D2" t="n">
-        <v>884.3631507615112</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>884.3631507615112</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2153.003734227383</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1800.235078957269</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>1426.769320696189</v>
       </c>
       <c r="Y2" t="n">
-        <v>1936.146930626913</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>91.929703038708</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>91.929703038708</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>485.3374297187173</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>485.3374297187173</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>485.3374297187173</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>485.3374297187173</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.109828622464</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>546.109828622464</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>546.109828622464</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>546.109828622464</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,25 +4662,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C8" t="n">
         <v>1626.94664591678</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4993,10 +4993,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
         <v>281.9325327183818</v>
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5066,19 +5066,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689405</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5230,19 +5230,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1629.264662777688</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.847492740728</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.85794184271</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.0653626991802</v>
+        <v>727.0030950818858</v>
       </c>
     </row>
     <row r="14">
@@ -5276,46 +5276,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.5038042865474</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5470,16 +5470,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X16" t="n">
-        <v>561.5038042865474</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.5038042865474</v>
+        <v>964.3709295897388</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,13 +5501,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468568</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5622,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1009.141030763746</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C19" t="n">
-        <v>840.2048478358396</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D19" t="n">
-        <v>690.0882084235038</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E19" t="n">
-        <v>542.1751148411107</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
         <v>241.7782212305366</v>
@@ -5680,43 +5680,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1740.749167728757</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1486.06467952287</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.789495593986</v>
+        <v>1486.06467952287</v>
       </c>
       <c r="X19" t="n">
-        <v>1190.789495593986</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y19" t="n">
-        <v>1190.789495593986</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,13 +5756,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>630.8674397712578</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C22" t="n">
-        <v>561.2936040684043</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560685</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.308483745028</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.308483745028</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y22" t="n">
-        <v>812.5159046014975</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="23">
@@ -6002,13 +6002,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.0071782166609</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C25" t="n">
-        <v>550.0071782166609</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D25" t="n">
-        <v>399.8905388043252</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>251.977445221932</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>251.977445221932</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>251.977445221932</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1854.973231804633</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1633.206616374159</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1344.103749499802</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.206478295169</v>
+        <v>1089.419261293915</v>
       </c>
       <c r="W25" t="n">
-        <v>998.7893082582084</v>
+        <v>800.0020912569549</v>
       </c>
       <c r="X25" t="n">
-        <v>770.7997573601911</v>
+        <v>572.0125403589376</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.0071782166609</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6321,16 +6321,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>491.7343098287685</v>
+        <v>817.4551465905729</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3805104860112</v>
+        <v>648.518963662666</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590082</v>
+        <v>999.1036114208126</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6470,13 +6470,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6491,16 +6491,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.7224647594991</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C31" t="n">
-        <v>613.7862818315922</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D31" t="n">
-        <v>463.6696424192564</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>360.5895482553301</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6649,22 +6649,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W31" t="n">
-        <v>964.3709295897388</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X31" t="n">
-        <v>964.3709295897388</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.3709295897388</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277726</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483404</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542185</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232733</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679679</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,40 +6777,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390144</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193612</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320262</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454342</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,52 +6856,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104702</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104702</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1762.234817571896</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1507.550329366009</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1507.550329366009</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1279.560778467991</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473709</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672753</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3254056113307</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>424.3254056113307</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6634387812777</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.614038816861</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7887537516768</v>
+        <v>546.9521111632233</v>
       </c>
       <c r="D37" t="n">
-        <v>779.7830122020641</v>
+        <v>546.9521111632233</v>
       </c>
       <c r="E37" t="n">
-        <v>631.9808164823941</v>
+        <v>399.0390175808302</v>
       </c>
       <c r="F37" t="n">
-        <v>485.2017668472067</v>
+        <v>399.0390175808302</v>
       </c>
       <c r="G37" t="n">
-        <v>318.0984698845086</v>
+        <v>231.8248227554091</v>
       </c>
       <c r="H37" t="n">
-        <v>176.336650785662</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985991</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769882</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2051.569164985386</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1762.603849162836</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1508.030258819672</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.030258819672</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.151605784377</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.151605784377</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928005</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167292</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2354.274259167292</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891603</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427388</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118885</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109809</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>409.520925494556</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506202</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504289</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900156</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896368</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1740.437300371967</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337915</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>921.9831621891594</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427379</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>653.6271532118876</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>531.06246631098</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>409.520925494555</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>267.6551373506193</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>653.6271532118873</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>531.0624663109795</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>409.5209254945545</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.6551373506187</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705345</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.147144788772</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.75293626043</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277197</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>7.630896635343674</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>201.9664098701125</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476885</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>49.74439522492605</v>
+        <v>51.31264782909079</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.4755647556323</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>129.0261666329393</v>
       </c>
     </row>
     <row r="3">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590247</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>147.878577306252</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>45.95911518170649</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.37633176975876</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983456</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>79.00884466270554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520929</v>
       </c>
     </row>
     <row r="17">
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.05393160749114</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>262.5425081448658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>147.2125441976416</v>
       </c>
       <c r="C22" t="n">
-        <v>98.36872375280294</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>86.25518865835664</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>89.41249337437145</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>89.67655974929814</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.32036667927062</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.5089886023407</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>44.38466942428211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24889,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>94.04427615813427</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>85.66185667859895</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>90.77750232339177</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206063.535958184</v>
+        <v>1206153.0529133</v>
       </c>
     </row>
     <row r="3">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1153866.371218123</v>
+        <v>1153795.579199101</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861757</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861757</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861757</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262945.7723456639</v>
+        <v>262966.1884933219</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="E2" t="n">
+        <v>258103.1614765392</v>
+      </c>
+      <c r="F2" t="n">
         <v>258103.1614765391</v>
-      </c>
-      <c r="F2" t="n">
-        <v>258103.1614765392</v>
       </c>
       <c r="G2" t="n">
         <v>258103.1614765392</v>
@@ -26335,25 +26335,25 @@
         <v>258103.1614765391</v>
       </c>
       <c r="J2" t="n">
+        <v>258103.1614765392</v>
+      </c>
+      <c r="K2" t="n">
         <v>258103.1614765391</v>
       </c>
-      <c r="K2" t="n">
-        <v>258103.1614765392</v>
-      </c>
       <c r="L2" t="n">
-        <v>258103.1614765392</v>
+        <v>258103.161476539</v>
       </c>
       <c r="M2" t="n">
-        <v>262192.3837111893</v>
+        <v>262171.9675635317</v>
       </c>
       <c r="N2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058919</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485558</v>
+        <v>312970.0160233573</v>
       </c>
       <c r="N3" t="n">
-        <v>26197.777925614</v>
+        <v>20075.93809173645</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185370.0311484423</v>
+        <v>185405.8861173443</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26427,37 +26427,37 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709192</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674856</v>
+        <v>5069.915760662914</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.3959195899</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591958992</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.39591958988</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-595251.2160807323</v>
+        <v>-595296.4424920729</v>
       </c>
       <c r="C6" t="n">
-        <v>-8227.099249946972</v>
+        <v>-8227.09924994703</v>
       </c>
       <c r="D6" t="n">
-        <v>-8227.099249946972</v>
+        <v>-8227.099249946797</v>
       </c>
       <c r="E6" t="n">
-        <v>-587277.3787676732</v>
+        <v>-587344.574257899</v>
       </c>
       <c r="F6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="G6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="H6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355077</v>
       </c>
       <c r="I6" t="n">
-        <v>140100.0352257335</v>
+        <v>140032.8397355077</v>
       </c>
       <c r="J6" t="n">
-        <v>-36323.18396685939</v>
+        <v>-36390.37945708501</v>
       </c>
       <c r="K6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="L6" t="n">
-        <v>140100.0352257343</v>
+        <v>140032.8397355077</v>
       </c>
       <c r="M6" t="n">
-        <v>-156838.9135752143</v>
+        <v>-156833.9006595914</v>
       </c>
       <c r="N6" t="n">
-        <v>125028.1735266109</v>
+        <v>130395.4966880344</v>
       </c>
       <c r="O6" t="n">
-        <v>151225.9514522251</v>
+        <v>150471.4347797706</v>
       </c>
       <c r="P6" t="n">
-        <v>151225.9514522252</v>
+        <v>150471.4347797708</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
     <row r="3">
@@ -26765,19 +26765,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.17485860794394</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230884</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="N3" t="n">
-        <v>9.934451625287693</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.42383298842304</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>59.97507817967363</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>97.35876778617812</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>131.3366584954024</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>62.54498204632091</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>85.34635367328917</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>106.7475217995174</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>275.6129302656335</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>57.73423284399541</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.68503059263386</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053969</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840957848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467056</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844664</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003806</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623187</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574988</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095017</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746408</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781686</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806942</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502564</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798529</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752251</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026464</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233471</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002923</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987484</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238312</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.44815837589849</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742014</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702022</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.049502431643</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802167</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712208</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553033</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112289</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>455.6067946997426</v>
+        <v>455.6067946997425</v>
       </c>
       <c r="N36" t="n">
         <v>759.7214730927639</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>340.7767527663071</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>571.4938338238233</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934851</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>559.9327320482552</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36838,16 +36838,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>600.7283960894844</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.883616140786</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265648</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923315</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302261</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129108</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535907</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.560694390854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636238</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.329618415207</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597975</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013287</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525801</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859621</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306611</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701979</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934836</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675398</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226395</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451102</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>794.4766961512961</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>313.4727607777243</v>
+        <v>313.4727607777241</v>
       </c>
       <c r="N36" t="n">
         <v>628.3797610094306</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.8897109947563</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483015</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084738</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885756</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243176</v>
+        <v>741.0722806160991</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7949786802857</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>443.9796355355867</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>428.8975893793788</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
